--- a/WordDirection.xlsx
+++ b/WordDirection.xlsx
@@ -8,20 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mangc\Desktop\WordHelper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CB54930-8ED4-455A-A253-90D286E8D065}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D837D676-A455-4259-B7E3-5F827E187685}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4080" yWindow="840" windowWidth="21585" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1710" yWindow="930" windowWidth="15150" windowHeight="13665" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1일차" sheetId="1" r:id="rId1"/>
     <sheet name="2일차" sheetId="2" r:id="rId2"/>
+    <sheet name="3일차" sheetId="3" r:id="rId3"/>
+    <sheet name="4일차" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="527">
   <si>
     <t>market</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -80,6 +82,2054 @@
   </si>
   <si>
     <t>report</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>management</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>thorough</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>receptionist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>approval</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>proposal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>executive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>accountant</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>opening</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>applicant</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>integral</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>subjective</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>costly</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>timely</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>orderly</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>confidential</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>considerable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>considerate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dependable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>existing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>promising</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>accomplished</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>motivated</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>complicated</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>seldom</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hardly</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>close</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>closely</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lately</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mostly</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>highly</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shortly</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sharply</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>slightly</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>considerably</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>substantially</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>significantly</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>approximately</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>moreover</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>in addition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>furthermore</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>otherwise</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>on the other hand</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>account</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>personal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>expect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>express</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>expression</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>division</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>further</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>notice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>issue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>training</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>explain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>conduct</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eligible</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>appoint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>feature</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>immediate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>significant</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>procedure</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a series of</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>portion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assess</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unbeatable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wrap up</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>refrain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inspect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>organization</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>individual</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>personel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>arrange</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>session</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>release</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>secure</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>address</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>overall</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>appliance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>run into</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>plenty of</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rather than</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>in honor of</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>turnout</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>highlight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>circulate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prominent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>parts</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>substitute</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>courtesy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>workforce</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>removal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>seminar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eligibility</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enthuse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>expertise</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>branch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pharmaceuticals</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>projection</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>whereas</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>summarize</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>compensation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>acquisition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aisle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>head to</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>until further notice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>implement</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>need</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>promotion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>responsible</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>consult</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>remind</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>emphasize</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>leading</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>function</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>conference</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>anticipate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>extensive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>convention</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>promptly</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>brief</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maintenance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>accurate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>statement</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>requirement</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>concentrate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>urge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>figure</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>guideline</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>clearly</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>regularly</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>certain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>specialize</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lower</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>restrict</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>join</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>instruction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insurance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>roughly</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>means</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>greatly</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>forward</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reliable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>acquire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>invoice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>common</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>subject</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>admission</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>expire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deposit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>depart</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>evaluate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hold</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>content</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vary</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>comprehensive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>comment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rather</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>permanent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>narrow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fomerly</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>doubt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inquire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>note</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>urgent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>periodic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prohibit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>relocate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>institute</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>defective</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>take a day off</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>complaint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>complain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>disclose</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>construct</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>construction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>confirm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>confirmation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>supplies</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reliance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sales representative</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prolong</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>diverse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>great</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>finish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>potent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>potentiate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>structure</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>high-end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>over</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>distinctive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sales figure</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>office supplies</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stock</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>currently</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>patron</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>although</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a month from now</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sales</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>net profit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>heighten</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>venue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pay raise</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exceptional</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>state-of-the-art</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>microwave</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>renovation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enthusiast</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검토하다, 논평하다, 검토, 논평</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>발표하다, 제시하다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>출석</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~을 초래하다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~로부터 발생하다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~의 결과로</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>접촉, 연락하다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연례의</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>걱정, ~에 영향을 미치다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신청서, 지원서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보고하다, 보고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경영, 관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>철저한</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>접수원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>승인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제안서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중역, 관리직</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회계사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공석</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지원자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>필수적인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주관적인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비용의</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시기적절한</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정돈된</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>respective</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>performance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>각각의</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기밀의</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상당한</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사려깊은</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>믿을만한</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기존의</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유망한</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뛰어난</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>의욕적인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>복잡한</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>거의 ~ 하지 않다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가까이에</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자세히</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최근에</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대게, 대체로</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>매우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>곧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>급격히</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>약간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상당히</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대략</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게다가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>더욱이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그렇지 않으면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>반면에</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>계좌, 설명하다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개인적인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예상하다, 기대하다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>표현하다, 급행의</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>표정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부서, 분할</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>더 이상의, 추가의</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>알아차리다, 공지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쟁점, 발표하다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>교육, 운동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설명하다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(실시)하다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자격이 있는</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지명하다, 임명하다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~을 특징으로 삼다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>즉각적인, 직접적인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중요한, 의미있는</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>절차</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일련의</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일부, 부분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>평가하다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>더 이상 좋을 수 없는</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마무리 짓다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>삼가하다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검사하다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조직, 기관</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>직원, 인력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(일정, 약속 등을) 잡다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(일정 기간의) 시간, 과정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>발표하다, 출시하다, 공개하다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>field</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>분야, 업종</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>안전한</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(어려운 문제 등을)다루다, 연설하다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전반적인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가전제품</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~을 우연히 만나다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>많은</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~대신, ~보다는</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~에게 경의를 표하여</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>참가자의 수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강조하다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>돌리다, 알리다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중요한, 유명한</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부품</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>교체하다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공손함, 정중함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>노동자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제거, 해고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>토론식 수업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적임, 적격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>열광하게 만든다, 열변을 토하다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전문 지식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지점, 지사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제약 회사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요약하다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보상(금)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>습득, (기업) 인수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>통로</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~로 향하다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>추가 공지가 있을 때까지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~을 제정하다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요구사항, 필요로 하다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>홍보, 활동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>책임지고 있는</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상담하다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상기시키다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선두적인, 주요한</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기능을 하다, 작동하다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>학회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대규모의, 광범위한</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신속히, 즉시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>간결한, 짧은</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유지(보수)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정확한</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>입출금 내역서, 명세서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>필요조건, 자격요건</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>집중하다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>촉구하다, 권고하다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수치, 숫자, 판단하다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지침(서)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>명확히, 분명히</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정기적으로, 규칙적으로</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>확신하는</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(~을) 전공하다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>낮추다, 내리다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제한하다, 한정하다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가입하다, 참가하다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지시, 설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보험금</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>거칠게, 대략적으로</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수단, 방법</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>크게, 대단히</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보내다, 전달하다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>획득하다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>청구서, 송장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>흔한, 평범한</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(안좋은 영향으로) ~ 될 수 있는</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>입장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>끝나다, 만료되다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예금하다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>출발하다, 떠나다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개최하다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내용(물)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다양하다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>포괄적인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>논평하다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오히려, 차라리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영구적인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>좁히다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이전에, 예전에</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>의심하다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>묻다, 문의하다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주목하다, 관심을 갖다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>긴급한, 다급한</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주기적인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>금지하다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이전하다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(제도, 정책 등을) 도입하다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결함이 있는</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하루 휴가를 내다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>불평하다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>불평</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>드러내다, 밝히다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>건설하다, 구성하다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>건설, 공사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사실임을 보여주다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>물품</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>의존</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영업 직원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연장시키다, 연장하다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다양한</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>엄청한</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마감재</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강한, (힘이) 센</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>힘을 주다, 강력하게 하다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구조물</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고급의</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~동안</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>독특한</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>매출 수치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부속 건물</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사무 용품</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(물건 등을) 채우다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현재, 지금</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>단골</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비록 ~지만</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지금으로부터 한달 후에</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>매출</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>순이익</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고조되다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>임금 인상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>훌륭한, 뛰어난</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최신의</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전자레인지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개조보수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>열렬한 지지자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>delivery</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>manufacturer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배달</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제조사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>participant</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>참가자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>accommodate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공간을 제공하다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>confident</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자신감 있는, ~을 확신하는</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hand</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>make a purchase</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pile up</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hand over</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>materials</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>construction site</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>through the window</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>collecting</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cash register</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unload</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vehicle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>study</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>apron</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pouring</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>admiring painting</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>instruments</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>side by side</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>goods</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reaching for the item</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>flowerpot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>plate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>be set on</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>be under construction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>on either side of</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unfold</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>light fixture</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>drawer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>display cases</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>be situated</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>filing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>handle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>management office</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stop by</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ask for</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>give a presentation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>be supposed to</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>public relations</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bookshelfs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shop for</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>건네다, 넘겨주다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>물건을 사다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~을 사러 다니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쌓다, 쌓이다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>건네주다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(물건의)재료, 자료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공사장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>창문을 통해서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모으다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현금 등록기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(짐을) 내리다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>차량, 탈것</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(자세히) 살펴보다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>앞치마</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>붓다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그림을 감상하다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도구, 악기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나란히, 함께</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제품, 상품</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>물건까지 손을 뻗다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>책꽂이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>접시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~에 차려져 있다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공사 중이다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~의 양 옆에</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>펼쳐지다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조명 기구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서랍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>진열장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>놓여져 있다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화분을 심다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서류 칠하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일을 처리하다, 다루다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리 부서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>들르다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~을 요청하다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>발표하다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~하기로 되어있다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>홍보 부서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wheelbarrow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>손수레</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -427,77 +2477,872 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A13"/>
+  <dimension ref="A1:B107"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="B108" sqref="B108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.625" customWidth="1"/>
+    <col min="2" max="2" width="25.625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>14</v>
+      </c>
+      <c r="B13" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>247</v>
+      </c>
+      <c r="B28" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>34</v>
+      </c>
+      <c r="B34" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>36</v>
+      </c>
+      <c r="B36" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>37</v>
+      </c>
+      <c r="B37" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>38</v>
+      </c>
+      <c r="B38" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>39</v>
+      </c>
+      <c r="B39" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>40</v>
+      </c>
+      <c r="B40" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>41</v>
+      </c>
+      <c r="B41" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>42</v>
+      </c>
+      <c r="B42" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>43</v>
+      </c>
+      <c r="B43" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>44</v>
+      </c>
+      <c r="B44" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>45</v>
+      </c>
+      <c r="B45" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>46</v>
+      </c>
+      <c r="B46" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>47</v>
+      </c>
+      <c r="B47" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>48</v>
+      </c>
+      <c r="B48" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>49</v>
+      </c>
+      <c r="B49" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>50</v>
+      </c>
+      <c r="B50" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>51</v>
+      </c>
+      <c r="B51" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>52</v>
+      </c>
+      <c r="B52" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>53</v>
+      </c>
+      <c r="B53" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>54</v>
+      </c>
+      <c r="B54" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>55</v>
+      </c>
+      <c r="B55" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>56</v>
+      </c>
+      <c r="B56" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>57</v>
+      </c>
+      <c r="B57" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>58</v>
+      </c>
+      <c r="B58" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>59</v>
+      </c>
+      <c r="B59" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>248</v>
+      </c>
+      <c r="B60" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>61</v>
+      </c>
+      <c r="B62" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>62</v>
+      </c>
+      <c r="B63" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>64</v>
+      </c>
+      <c r="B65" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>65</v>
+      </c>
+      <c r="B66" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>66</v>
+      </c>
+      <c r="B67" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>67</v>
+      </c>
+      <c r="B68" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>68</v>
+      </c>
+      <c r="B69" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>69</v>
+      </c>
+      <c r="B70" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>70</v>
+      </c>
+      <c r="B71" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>71</v>
+      </c>
+      <c r="B72" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>72</v>
+      </c>
+      <c r="B73" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>73</v>
+      </c>
+      <c r="B74" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>74</v>
+      </c>
+      <c r="B75" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>75</v>
+      </c>
+      <c r="B76" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>76</v>
+      </c>
+      <c r="B77" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>77</v>
+      </c>
+      <c r="B78" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>78</v>
+      </c>
+      <c r="B79" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>79</v>
+      </c>
+      <c r="B80" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>80</v>
+      </c>
+      <c r="B81" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>81</v>
+      </c>
+      <c r="B82" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>82</v>
+      </c>
+      <c r="B83" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>83</v>
+      </c>
+      <c r="B84" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>84</v>
+      </c>
+      <c r="B85" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>85</v>
+      </c>
+      <c r="B86" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>86</v>
+      </c>
+      <c r="B87" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>87</v>
+      </c>
+      <c r="B88" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>22</v>
+      </c>
+      <c r="B89" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>305</v>
+      </c>
+      <c r="B90" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>88</v>
+      </c>
+      <c r="B91" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>89</v>
+      </c>
+      <c r="B92" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>90</v>
+      </c>
+      <c r="B93" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>91</v>
+      </c>
+      <c r="B94" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>92</v>
+      </c>
+      <c r="B95" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>93</v>
+      </c>
+      <c r="B96" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>94</v>
+      </c>
+      <c r="B97" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>95</v>
+      </c>
+      <c r="B98" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>96</v>
+      </c>
+      <c r="B99" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>97</v>
+      </c>
+      <c r="B100" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>98</v>
+      </c>
+      <c r="B101" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>99</v>
+      </c>
+      <c r="B102" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>435</v>
+      </c>
+      <c r="B103" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>436</v>
+      </c>
+      <c r="B104" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>439</v>
+      </c>
+      <c r="B105" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>441</v>
+      </c>
+      <c r="B106" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>443</v>
+      </c>
+      <c r="B107" t="s">
+        <v>444</v>
       </c>
     </row>
   </sheetData>
@@ -509,256 +3354,1365 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B30"/>
+  <dimension ref="A1:B83"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B84" sqref="B84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.625" customWidth="1"/>
+    <col min="2" max="2" width="25.625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>319</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>101</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>320</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>3</v>
-      </c>
-      <c r="B3">
-        <v>28</v>
+      <c r="A3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B3" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>4</v>
-      </c>
-      <c r="B4">
-        <v>27</v>
+      <c r="A4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B4" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>5</v>
-      </c>
-      <c r="B5">
-        <v>26</v>
+      <c r="A5" t="s">
+        <v>104</v>
+      </c>
+      <c r="B5" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>6</v>
-      </c>
-      <c r="B6">
-        <v>25</v>
+      <c r="A6" t="s">
+        <v>105</v>
+      </c>
+      <c r="B6" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>7</v>
-      </c>
-      <c r="B7">
-        <v>24</v>
+      <c r="A7" t="s">
+        <v>106</v>
+      </c>
+      <c r="B7" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>8</v>
-      </c>
-      <c r="B8">
-        <v>23</v>
+      <c r="A8" t="s">
+        <v>107</v>
+      </c>
+      <c r="B8" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>9</v>
-      </c>
-      <c r="B9">
-        <v>22</v>
+      <c r="A9" t="s">
+        <v>108</v>
+      </c>
+      <c r="B9" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>10</v>
-      </c>
-      <c r="B10">
-        <v>21</v>
+      <c r="A10" t="s">
+        <v>109</v>
+      </c>
+      <c r="B10" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>11</v>
-      </c>
-      <c r="B11">
-        <v>20</v>
+      <c r="A11" t="s">
+        <v>110</v>
+      </c>
+      <c r="B11" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>12</v>
-      </c>
-      <c r="B12">
-        <v>19</v>
+      <c r="A12" t="s">
+        <v>111</v>
+      </c>
+      <c r="B12" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>13</v>
-      </c>
-      <c r="B13">
-        <v>18</v>
+      <c r="A13" t="s">
+        <v>112</v>
+      </c>
+      <c r="B13" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>14</v>
-      </c>
-      <c r="B14">
-        <v>17</v>
+      <c r="A14" t="s">
+        <v>113</v>
+      </c>
+      <c r="B14" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>15</v>
-      </c>
-      <c r="B15">
-        <v>16</v>
+      <c r="A15" t="s">
+        <v>114</v>
+      </c>
+      <c r="B15" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>16</v>
-      </c>
-      <c r="B16">
-        <v>15</v>
+      <c r="A16" t="s">
+        <v>115</v>
+      </c>
+      <c r="B16" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>17</v>
-      </c>
-      <c r="B17">
-        <v>14</v>
+      <c r="A17" t="s">
+        <v>116</v>
+      </c>
+      <c r="B17" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>18</v>
-      </c>
-      <c r="B18">
-        <v>13</v>
+      <c r="A18" t="s">
+        <v>117</v>
+      </c>
+      <c r="B18" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>19</v>
-      </c>
-      <c r="B19">
-        <v>12</v>
+      <c r="A19" t="s">
+        <v>118</v>
+      </c>
+      <c r="B19" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>20</v>
-      </c>
-      <c r="B20">
-        <v>11</v>
+      <c r="A20" t="s">
+        <v>119</v>
+      </c>
+      <c r="B20" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>21</v>
-      </c>
-      <c r="B21">
-        <v>10</v>
+      <c r="A21" t="s">
+        <v>120</v>
+      </c>
+      <c r="B21" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22">
-        <v>22</v>
-      </c>
-      <c r="B22">
-        <v>9</v>
+      <c r="A22" t="s">
+        <v>121</v>
+      </c>
+      <c r="B22" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23">
-        <v>23</v>
-      </c>
-      <c r="B23">
-        <v>8</v>
+      <c r="A23" t="s">
+        <v>122</v>
+      </c>
+      <c r="B23" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24">
-        <v>24</v>
-      </c>
-      <c r="B24">
-        <v>7</v>
+      <c r="A24" t="s">
+        <v>123</v>
+      </c>
+      <c r="B24" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25">
-        <v>25</v>
-      </c>
-      <c r="B25">
-        <v>6</v>
+      <c r="A25" t="s">
+        <v>124</v>
+      </c>
+      <c r="B25" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26">
-        <v>26</v>
-      </c>
-      <c r="B26">
-        <v>5</v>
+      <c r="A26" t="s">
+        <v>125</v>
+      </c>
+      <c r="B26" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27">
-        <v>27</v>
-      </c>
-      <c r="B27">
-        <v>4</v>
+      <c r="A27" t="s">
+        <v>126</v>
+      </c>
+      <c r="B27" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28">
-        <v>28</v>
-      </c>
-      <c r="B28">
-        <v>3</v>
+      <c r="A28" t="s">
+        <v>127</v>
+      </c>
+      <c r="B28" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29">
-        <v>29</v>
-      </c>
-      <c r="B29">
-        <v>2</v>
+      <c r="A29" t="s">
+        <v>128</v>
+      </c>
+      <c r="B29" t="s">
+        <v>345</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30">
-        <v>30</v>
-      </c>
-      <c r="B30">
-        <v>1</v>
+      <c r="A30" t="s">
+        <v>129</v>
+      </c>
+      <c r="B30" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>130</v>
+      </c>
+      <c r="B31" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>131</v>
+      </c>
+      <c r="B32" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>132</v>
+      </c>
+      <c r="B33" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>133</v>
+      </c>
+      <c r="B34" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>134</v>
+      </c>
+      <c r="B35" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>135</v>
+      </c>
+      <c r="B36" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>136</v>
+      </c>
+      <c r="B37" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>137</v>
+      </c>
+      <c r="B38" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>138</v>
+      </c>
+      <c r="B39" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>139</v>
+      </c>
+      <c r="B40" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>140</v>
+      </c>
+      <c r="B41" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>141</v>
+      </c>
+      <c r="B42" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>142</v>
+      </c>
+      <c r="B43" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>143</v>
+      </c>
+      <c r="B44" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>144</v>
+      </c>
+      <c r="B45" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>145</v>
+      </c>
+      <c r="B46" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>146</v>
+      </c>
+      <c r="B47" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>147</v>
+      </c>
+      <c r="B48" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>148</v>
+      </c>
+      <c r="B49" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>149</v>
+      </c>
+      <c r="B50" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>150</v>
+      </c>
+      <c r="B51" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>151</v>
+      </c>
+      <c r="B52" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>152</v>
+      </c>
+      <c r="B53" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>153</v>
+      </c>
+      <c r="B54" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>154</v>
+      </c>
+      <c r="B55" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>155</v>
+      </c>
+      <c r="B56" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>156</v>
+      </c>
+      <c r="B57" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>157</v>
+      </c>
+      <c r="B58" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>158</v>
+      </c>
+      <c r="B59" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>159</v>
+      </c>
+      <c r="B60" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>160</v>
+      </c>
+      <c r="B61" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>161</v>
+      </c>
+      <c r="B62" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>162</v>
+      </c>
+      <c r="B63" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>163</v>
+      </c>
+      <c r="B64" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>164</v>
+      </c>
+      <c r="B65" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>165</v>
+      </c>
+      <c r="B66" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>166</v>
+      </c>
+      <c r="B67" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>167</v>
+      </c>
+      <c r="B68" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>168</v>
+      </c>
+      <c r="B69" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>169</v>
+      </c>
+      <c r="B70" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>170</v>
+      </c>
+      <c r="B71" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>171</v>
+      </c>
+      <c r="B72" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>172</v>
+      </c>
+      <c r="B73" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>173</v>
+      </c>
+      <c r="B74" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>174</v>
+      </c>
+      <c r="B75" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>175</v>
+      </c>
+      <c r="B76" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>176</v>
+      </c>
+      <c r="B77" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>177</v>
+      </c>
+      <c r="B78" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>178</v>
+      </c>
+      <c r="B79" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>179</v>
+      </c>
+      <c r="B80" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>180</v>
+      </c>
+      <c r="B81" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>181</v>
+      </c>
+      <c r="B82" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>182</v>
+      </c>
+      <c r="B83" t="s">
+        <v>395</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFC3A86C-BF52-43A9-85CD-18DBD9205291}">
+  <dimension ref="A1:B39"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.625" customWidth="1"/>
+    <col min="2" max="2" width="25.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B1" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B2" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>185</v>
+      </c>
+      <c r="B3" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B4" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B5" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>188</v>
+      </c>
+      <c r="B6" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>189</v>
+      </c>
+      <c r="B7" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>190</v>
+      </c>
+      <c r="B8" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>191</v>
+      </c>
+      <c r="B9" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>192</v>
+      </c>
+      <c r="B10" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>193</v>
+      </c>
+      <c r="B11" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>194</v>
+      </c>
+      <c r="B12" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>195</v>
+      </c>
+      <c r="B13" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>196</v>
+      </c>
+      <c r="B14" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>197</v>
+      </c>
+      <c r="B15" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>198</v>
+      </c>
+      <c r="B16" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>199</v>
+      </c>
+      <c r="B17" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>200</v>
+      </c>
+      <c r="B18" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>201</v>
+      </c>
+      <c r="B19" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>202</v>
+      </c>
+      <c r="B20" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>203</v>
+      </c>
+      <c r="B21" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>204</v>
+      </c>
+      <c r="B22" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>205</v>
+      </c>
+      <c r="B23" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>206</v>
+      </c>
+      <c r="B24" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>207</v>
+      </c>
+      <c r="B25" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>208</v>
+      </c>
+      <c r="B26" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>209</v>
+      </c>
+      <c r="B27" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>210</v>
+      </c>
+      <c r="B28" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>211</v>
+      </c>
+      <c r="B29" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>212</v>
+      </c>
+      <c r="B30" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>213</v>
+      </c>
+      <c r="B31" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>214</v>
+      </c>
+      <c r="B32" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>215</v>
+      </c>
+      <c r="B33" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>216</v>
+      </c>
+      <c r="B34" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>217</v>
+      </c>
+      <c r="B35" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>218</v>
+      </c>
+      <c r="B36" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>219</v>
+      </c>
+      <c r="B37" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>220</v>
+      </c>
+      <c r="B38" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>221</v>
+      </c>
+      <c r="B39" t="s">
+        <v>434</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC2F68F5-0CE1-4F68-A21C-2A7D3E8A3204}">
+  <dimension ref="A1:B41"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.625" customWidth="1"/>
+    <col min="2" max="2" width="25.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>445</v>
+      </c>
+      <c r="B1" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>446</v>
+      </c>
+      <c r="B2" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>484</v>
+      </c>
+      <c r="B3" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>447</v>
+      </c>
+      <c r="B4" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>448</v>
+      </c>
+      <c r="B5" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>449</v>
+      </c>
+      <c r="B6" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>525</v>
+      </c>
+      <c r="B7" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>450</v>
+      </c>
+      <c r="B8" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>451</v>
+      </c>
+      <c r="B9" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>452</v>
+      </c>
+      <c r="B10" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>453</v>
+      </c>
+      <c r="B11" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>454</v>
+      </c>
+      <c r="B12" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>455</v>
+      </c>
+      <c r="B13" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>456</v>
+      </c>
+      <c r="B14" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>457</v>
+      </c>
+      <c r="B15" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>458</v>
+      </c>
+      <c r="B16" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>459</v>
+      </c>
+      <c r="B17" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>460</v>
+      </c>
+      <c r="B18" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>461</v>
+      </c>
+      <c r="B19" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>462</v>
+      </c>
+      <c r="B20" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>463</v>
+      </c>
+      <c r="B21" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>464</v>
+      </c>
+      <c r="B22" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>483</v>
+      </c>
+      <c r="B23" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>465</v>
+      </c>
+      <c r="B24" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>466</v>
+      </c>
+      <c r="B25" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>467</v>
+      </c>
+      <c r="B26" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>468</v>
+      </c>
+      <c r="B27" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>469</v>
+      </c>
+      <c r="B28" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>470</v>
+      </c>
+      <c r="B29" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>471</v>
+      </c>
+      <c r="B30" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>472</v>
+      </c>
+      <c r="B31" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>473</v>
+      </c>
+      <c r="B32" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>474</v>
+      </c>
+      <c r="B33" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>475</v>
+      </c>
+      <c r="B34" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>476</v>
+      </c>
+      <c r="B35" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>477</v>
+      </c>
+      <c r="B36" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>478</v>
+      </c>
+      <c r="B37" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>479</v>
+      </c>
+      <c r="B38" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>480</v>
+      </c>
+      <c r="B39" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>481</v>
+      </c>
+      <c r="B40" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>482</v>
+      </c>
+      <c r="B41" t="s">
+        <v>524</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>